--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>description</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>phone</t>
   </si>
 </sst>
 </file>
@@ -380,9 +392,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -446,6 +460,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
